--- a/note/es6-features.xlsx
+++ b/note/es6-features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="link" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,18 @@
     <sheet name="Scoping" sheetId="3" r:id="rId4"/>
     <sheet name="Extended Parameter " sheetId="5" r:id="rId5"/>
     <sheet name="Template Literals" sheetId="6" r:id="rId6"/>
+    <sheet name="Extended Literals" sheetId="7" r:id="rId7"/>
+    <sheet name="Object Properties" sheetId="8" r:id="rId8"/>
+    <sheet name="destructuring_assignment" sheetId="9" r:id="rId9"/>
+    <sheet name="Modules" sheetId="10" r:id="rId10"/>
+    <sheet name="Class" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
   <si>
     <t>http://es6-features.org</t>
   </si>
@@ -681,6 +686,958 @@
   </si>
   <si>
     <t>get`http://example.com/foo?bar=${bar + baz}&amp;quux=${quux}`</t>
+  </si>
+  <si>
+    <t>get([ "http://example.com/foo?bar=", "&amp;quux=", "" ],bar + baz, quux);</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">111110111 === 503
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>767 === 503</t>
+    </r>
+  </si>
+  <si>
+    <t>parseInt("111110111", 2) === 503;
+parseInt("767", 8) === 503;</t>
+  </si>
+  <si>
+    <t>Binary &amp; Octal Literal</t>
+  </si>
+  <si>
+    <t>b: binary
+o: octal</t>
+  </si>
+  <si>
+    <t>Enhanced Object Properties</t>
+  </si>
+  <si>
+    <t>let x = 5, y = 6;
+let obj = {x, y};</t>
+  </si>
+  <si>
+    <t>var x = 0, y = 0;
+obj = { x: x, y: y };</t>
+  </si>
+  <si>
+    <t>Property Shorthand</t>
+  </si>
+  <si>
+    <t>Computed Property Names</t>
+  </si>
+  <si>
+    <t>let obj = {
+    foo: "bar",
+    [ "baz" + quux() ]: 42
+}</t>
+  </si>
+  <si>
+    <t>var obj = {
+    foo: "bar"
+};
+obj[ "baz" + quux() ] = 42;</t>
+  </si>
+  <si>
+    <t>quux: là 1 function
+thực tế chỉ là gán key trong object</t>
+  </si>
+  <si>
+    <t>let quux = () =&gt; 'anc'
+let obj = {
+    foo: "bar",
+    [ "baz" + quux() ]: 42
+}
+=&gt;
+{foo: "bar", bazanc: 42}</t>
+  </si>
+  <si>
+    <t>Method Properties</t>
+  </si>
+  <si>
+    <t>obj = {
+    foo (a, b) {
+        …
+    },
+    bar (x, y) {
+        …
+    },
+    *quux (x, y) {
+        …
+    }
+}</t>
+  </si>
+  <si>
+    <t>obj = {
+    foo: function (a, b) {
+        …
+    },
+    bar: function (x, y) {
+        …
+    },
+    //  quux: no equivalent in ES5
+    …
+};</t>
+  </si>
+  <si>
+    <t>var list = [ 1, 2, 3 ];
+var a = list[0], b = list[2];
+var tmp = a; a = b; b = tmp;</t>
+  </si>
+  <si>
+    <t>Array Matching
+//code đang ko chạy</t>
+  </si>
+  <si>
+    <t>var { op, lhs, rhs } = getASTNode()</t>
+  </si>
+  <si>
+    <t>var tmp = getASTNode();
+var op  = tmp.op;
+var lhs = tmp.lhs;
+var rhs = tmp.rhs;</t>
+  </si>
+  <si>
+    <t>Object Matching, Shorthand Notation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var list = [ 1, 2, 3 ]
+var [ a, , b ] = list</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+[ b, a ] = [ a, b ]</t>
+    </r>
+  </si>
+  <si>
+    <t>var { op: a, lhs: { op: b }, rhs: c } = getASTNode()</t>
+  </si>
+  <si>
+    <t>var tmp = getASTNode();
+var a = tmp.op;
+var b = tmp.lhs.op;
+var c = tmp.rhs;</t>
+  </si>
+  <si>
+    <t>Object Matching, Deep Matching</t>
+  </si>
+  <si>
+    <t>Object And Array Matching, Default Values</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var obj = { a: 1 };
+var list = [ 1 ];
+var a = obj.a;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var b = obj.b === undefined ? 2 : obj.b;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+var x = list[0];
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>var y = list[1] === undefined ? 2 : list[1];</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>var obj = { a: 1 }
+var list = [ 1 ]
+var { a,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> b = 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } = obj
+var [ x, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y = 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ] = list</t>
+    </r>
+  </si>
+  <si>
+    <t>khi dùng phương pháp này thì key tạo ra phải đồng nhất với object.
+var { a, b = 2 } = obj
+a: object.a
+b: object.b === undefined ? 2 : object.b</t>
+  </si>
+  <si>
+    <t>function f ([ name, val ]) {
+    console.log(name, val)
+}
+function g ({ name: n, val: v }) {
+    console.log(n, v)
+}
+function h ({ name, val }) {
+    console.log(name, val)
+}
+f([ "bar", 42 ])
+g({ name: "foo", val:  7 })
+h({ name: "bar", val: 42 })</t>
+  </si>
+  <si>
+    <t>function f (arg) {
+    var name = arg[0];
+    var val  = arg[1];
+    console.log(name, val);
+};
+function g (arg) {
+    var n = arg.name;
+    var v = arg.val;
+    console.log(n, v);
+};
+function h (arg) {
+    var name = arg.name;
+    var val  = arg.val;
+    console.log(name, val);
+};
+f([ "bar", 42 ]);
+g({ name: "foo", val:  7 });
+h({ name: "bar", val: 42 });</t>
+  </si>
+  <si>
+    <t>Parameter Context Matching</t>
+  </si>
+  <si>
+    <t>var list = [ 7, 42 ]
+var [ a = 1, b = 2, c = 3, d ] = list
+a === 7
+b === 42
+c === 3
+d === undefined</t>
+  </si>
+  <si>
+    <t>Fail-Soft Destructuring</t>
+  </si>
+  <si>
+    <t>var list = [ 7, 42 ];
+var a = typeof list[0] !== "undefined" ? list[0] : 1;
+var b = typeof list[1] !== "undefined" ? list[1] : 2;
+var c = typeof list[2] !== "undefined" ? list[2] : 3;
+var d = typeof list[3] !== "undefined" ? list[3] : undefined;
+a === 7;
+b === 42;
+c === 3;
+d === undefined;</t>
+  </si>
+  <si>
+    <r>
+      <t>=&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> rút gọn câu lệnh và tự động gán undefined</t>
+    </r>
+  </si>
+  <si>
+    <t>Export/Import</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//  lib/math.js
+export function sum (x, y) { return x + y }
+export var pi = 3.141593
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hoặc export {sum, pi}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+//  someApp.js
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import * as math from "lib/math"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log("2π = " + math.sum(math.pi, math.pi))
+//  otherApp.js
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>import { sum, pi } from "lib/math"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log("2π = " + sum(pi, pi))</t>
+    </r>
+  </si>
+  <si>
+    <t>//  lib/math.js
+LibMath = {};
+LibMath.sum = function (x, y) { return x + y };
+LibMath.pi = 3.141593;
+//  someApp.js
+var math = LibMath;
+console.log("2π = " + math.sum(math.pi, math.pi));
+//  otherApp.js
+var sum = LibMath.sum, pi = LibMath.pi;
+console.log("2π = " + sum(pi, pi));</t>
+  </si>
+  <si>
+    <t>Default &amp; Wildcard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">//  lib/mathplusplus.js
+export * from "lib/math"
+export var e = 2.71828182846
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>export default</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (x) =&gt; Math.exp(x)
+//  someApp.js
+import </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>exp,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> { pi, e } from "lib/mathplusplus"
+console.log("e^{π} = " + exp(pi))</t>
+    </r>
+  </si>
+  <si>
+    <t>//  lib/mathplusplus.js
+LibMathPP = {};
+for (symbol in LibMath)
+    if (LibMath.hasOwnProperty(symbol))
+        LibMathPP[symbol] = LibMath[symbol];
+LibMathPP.e = 2.71828182846;
+LibMathPP.exp = function (x) { return Math.exp(x) };
+//  someApp.js
+var exp = LibMathPP.exp, pi = LibMathPP.pi, e = LibMathPP.e;
+console.log("e^{π} = " + exp(pi));</t>
+  </si>
+  <si>
+    <t>Class Definition</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var Shape = function (id, x, y) {
+    this.id = id;
+    this.move(x, y);
+};
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Shape.prototype.move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = function (x, y) {
+    this.x = x;
+    this.y = y;
+};</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Shape {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (id, x, y) {
+        this.id = id
+        this.move(x, y)
+    }
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>move</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (x, y) {
+        this.x = x
+        this.y = y
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Class Inheritance (kế thừa)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Rectangle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Shape {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (id, x, y, width, height) {
+       </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(id, x, y)
+        this.width  = width
+        this.height = height
+    }
+}
+class Circle </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>extends</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Shape {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> constructor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (id, x, y, radius) {
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  super</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(id, x, y)
+        this.radius = radius
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>var Rectangle = function (id, x, y, width, height) {
+    Shape.call(this, id, x, y);
+    this.width  = width;
+    this.height = height;
+};
+Rectangle.prototype = Object.create(Shape.prototype);
+Rectangle.prototype.constructor = Rectangle;
+var Circle = function (id, x, y, radius) {
+    Shape.call(this, id, x, y);
+    this.radius = radius;
+};
+Circle.prototype = Object.create(Shape.prototype);
+Circle.prototype.constructor = Circle;</t>
+  </si>
+  <si>
+    <t>Base Class Access</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Rectangle extends Shape {
+    …
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> defaultRectangle () {
+        return new Rectangle("default", 0, 0, 100, 100)
+    }
+}
+var defRectangle = Rectangle.defaultRectangle()</t>
+    </r>
+  </si>
+  <si>
+    <t>static member</t>
+  </si>
+  <si>
+    <t>var Rectangle = function (id, x, y, width, height) {
+    …
+};
+Rectangle.defaultRectangle = function () {
+    return new Rectangle("default", 0, 0, 100, 100);
+};
+var defRectangle = Rectangle.defaultRectangle()</t>
+  </si>
+  <si>
+    <t>http://es6-features.org/#ClassInheritanceFromExpressions</t>
+  </si>
+  <si>
+    <t>Class Inheritance, From Expressions</t>
+  </si>
+  <si>
+    <t>Getter/Setter</t>
+  </si>
+  <si>
+    <t>var Rectangle = function (width, height) {
+    this._width  = width;
+    this._height = height;
+};
+Rectangle.prototype = {
+    set width  (width)  { this._width = width;               },
+    get width  ()       { return this._width;                },
+};
+var r = new Rectangle(50, 20);
+r.area === 1000;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Shape {
+    …
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> toString () {
+        return `Shape(${this.id})`
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}
+class Rectangle extends Shape {
+    constructor (id, x, y, width, height) {
+        super(id, x, y)
+        …
+    }
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  toString () {
+        return "Rectangle &gt; " + super.toString()
+    }</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class Rectangle {
+    constructor (width, height) {
+        this._width  = width
+        this._height = height
+    }
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">   set width  (width)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  { this._width = width               }
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> get width  () </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">      { return this._width                }
+}
+var r = new Rectangle(50, 20)
+r.area === 1000</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -753,7 +1710,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -761,38 +1718,80 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1101,7 +2100,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1122,12 +2121,178 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="46.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="255" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1" location="ClassInheritanceFromExpressions"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D203"/>
   <sheetViews>
     <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1156,47 +2321,48 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="16" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
@@ -1207,10 +2373,10 @@
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1218,10 +2384,10 @@
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="16" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1229,10 +2395,10 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1240,28 +2406,28 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="11"/>
+      <c r="C14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="11"/>
+      <c r="C15" s="16"/>
     </row>
     <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="17" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1269,756 +2435,756 @@
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="17" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="11"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="11"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="16"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="16"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="16"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="16"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="16"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="16"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="16"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="16"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="16"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="16"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="16"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="11"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="16"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="11"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="16"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="C41" s="11"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="16"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
-      <c r="C42" s="11"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="16"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="11"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="16"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="9"/>
-      <c r="C44" s="11"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="16"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="9"/>
-      <c r="C45" s="11"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="16"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="9"/>
-      <c r="C46" s="11"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="7"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="11"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="7"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="9"/>
-      <c r="C48" s="11"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="7"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="9"/>
-      <c r="C49" s="11"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="7"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
-      <c r="C50" s="11"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="7"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="9"/>
-      <c r="C51" s="11"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="7"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="9"/>
-      <c r="C52" s="11"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="7"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="9"/>
-      <c r="C53" s="11"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="7"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
-      <c r="C54" s="11"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="7"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="9"/>
-      <c r="C55" s="11"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="7"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="7"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="9"/>
-      <c r="C57" s="11"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="7"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="9"/>
-      <c r="C58" s="11"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="7"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="9"/>
-      <c r="C59" s="11"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="7"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="9"/>
-      <c r="C60" s="11"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="7"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="9"/>
-      <c r="C61" s="11"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="7"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="9"/>
-      <c r="C62" s="11"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="7"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="9"/>
-      <c r="C63" s="11"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="7"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
-      <c r="C64" s="11"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="7"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="9"/>
-      <c r="C65" s="11"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="9"/>
-      <c r="C66" s="11"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="7"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="9"/>
-      <c r="C67" s="11"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="9"/>
-      <c r="C68" s="11"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="9"/>
-      <c r="C69" s="11"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
-      <c r="C70" s="11"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="9"/>
-      <c r="C71" s="11"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="9"/>
-      <c r="C72" s="11"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="9"/>
-      <c r="C73" s="11"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="9"/>
-      <c r="C74" s="11"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="9"/>
-      <c r="C75" s="11"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="7"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="9"/>
-      <c r="C76" s="11"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="7"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="9"/>
-      <c r="C77" s="11"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="7"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="9"/>
-      <c r="C78" s="11"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="7"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="9"/>
-      <c r="C79" s="11"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="7"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="9"/>
-      <c r="C80" s="11"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="7"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="9"/>
-      <c r="C81" s="11"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="7"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="9"/>
-      <c r="C82" s="11"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="7"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="9"/>
-      <c r="C83" s="11"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="7"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="9"/>
-      <c r="C84" s="11"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="7"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="9"/>
-      <c r="C85" s="11"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="7"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="9"/>
-      <c r="C86" s="11"/>
+      <c r="B86" s="6"/>
+      <c r="C86" s="7"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="9"/>
-      <c r="C87" s="11"/>
+      <c r="B87" s="6"/>
+      <c r="C87" s="7"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="9"/>
-      <c r="C88" s="11"/>
+      <c r="B88" s="6"/>
+      <c r="C88" s="7"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="9"/>
-      <c r="C89" s="11"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="7"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="9"/>
-      <c r="C90" s="11"/>
+      <c r="B90" s="6"/>
+      <c r="C90" s="7"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="9"/>
-      <c r="C91" s="11"/>
+      <c r="B91" s="6"/>
+      <c r="C91" s="7"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="9"/>
-      <c r="C92" s="11"/>
+      <c r="B92" s="6"/>
+      <c r="C92" s="7"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="9"/>
-      <c r="C93" s="11"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="7"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="9"/>
-      <c r="C94" s="11"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="7"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="9"/>
-      <c r="C95" s="11"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="7"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="9"/>
-      <c r="C96" s="11"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="7"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="9"/>
-      <c r="C97" s="11"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="7"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="9"/>
-      <c r="C98" s="11"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="7"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="9"/>
-      <c r="C99" s="11"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="7"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="9"/>
-      <c r="C100" s="11"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="7"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="9"/>
-      <c r="C101" s="11"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="7"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="9"/>
-      <c r="C102" s="11"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="7"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="9"/>
-      <c r="C103" s="11"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="7"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="9"/>
-      <c r="C104" s="11"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="7"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="9"/>
-      <c r="C105" s="11"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="7"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="9"/>
-      <c r="C106" s="11"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="7"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="9"/>
-      <c r="C107" s="11"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="7"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="9"/>
-      <c r="C108" s="11"/>
+      <c r="B108" s="6"/>
+      <c r="C108" s="7"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="9"/>
-      <c r="C109" s="11"/>
+      <c r="B109" s="6"/>
+      <c r="C109" s="7"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="9"/>
-      <c r="C110" s="11"/>
+      <c r="B110" s="6"/>
+      <c r="C110" s="7"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="9"/>
-      <c r="C111" s="11"/>
+      <c r="B111" s="6"/>
+      <c r="C111" s="7"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="9"/>
-      <c r="C112" s="11"/>
+      <c r="B112" s="6"/>
+      <c r="C112" s="7"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="9"/>
-      <c r="C113" s="11"/>
+      <c r="B113" s="6"/>
+      <c r="C113" s="7"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="9"/>
-      <c r="C114" s="11"/>
+      <c r="B114" s="6"/>
+      <c r="C114" s="7"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="9"/>
-      <c r="C115" s="11"/>
+      <c r="B115" s="6"/>
+      <c r="C115" s="7"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="9"/>
-      <c r="C116" s="11"/>
+      <c r="B116" s="6"/>
+      <c r="C116" s="7"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="9"/>
-      <c r="C117" s="11"/>
+      <c r="B117" s="6"/>
+      <c r="C117" s="7"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="9"/>
-      <c r="C118" s="11"/>
+      <c r="B118" s="6"/>
+      <c r="C118" s="7"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="9"/>
-      <c r="C119" s="11"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="7"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="9"/>
-      <c r="C120" s="11"/>
+      <c r="B120" s="6"/>
+      <c r="C120" s="7"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="9"/>
-      <c r="C121" s="11"/>
+      <c r="B121" s="6"/>
+      <c r="C121" s="7"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="9"/>
-      <c r="C122" s="11"/>
+      <c r="B122" s="6"/>
+      <c r="C122" s="7"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="9"/>
-      <c r="C123" s="11"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="7"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="9"/>
-      <c r="C124" s="11"/>
+      <c r="B124" s="6"/>
+      <c r="C124" s="7"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="9"/>
-      <c r="C125" s="11"/>
+      <c r="B125" s="6"/>
+      <c r="C125" s="7"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="9"/>
-      <c r="C126" s="11"/>
+      <c r="B126" s="6"/>
+      <c r="C126" s="7"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="9"/>
-      <c r="C127" s="11"/>
+      <c r="B127" s="6"/>
+      <c r="C127" s="7"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="9"/>
-      <c r="C128" s="11"/>
+      <c r="B128" s="6"/>
+      <c r="C128" s="7"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="9"/>
-      <c r="C129" s="11"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="7"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="9"/>
-      <c r="C130" s="11"/>
+      <c r="B130" s="6"/>
+      <c r="C130" s="7"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="9"/>
-      <c r="C131" s="11"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="7"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="9"/>
-      <c r="C132" s="11"/>
+      <c r="B132" s="6"/>
+      <c r="C132" s="7"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="9"/>
-      <c r="C133" s="11"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="7"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="9"/>
-      <c r="C134" s="11"/>
+      <c r="B134" s="6"/>
+      <c r="C134" s="7"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="9"/>
-      <c r="C135" s="11"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="7"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="9"/>
-      <c r="C136" s="11"/>
+      <c r="B136" s="6"/>
+      <c r="C136" s="7"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="9"/>
-      <c r="C137" s="11"/>
+      <c r="B137" s="6"/>
+      <c r="C137" s="7"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="9"/>
-      <c r="C138" s="11"/>
+      <c r="B138" s="6"/>
+      <c r="C138" s="7"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="9"/>
-      <c r="C139" s="11"/>
+      <c r="B139" s="6"/>
+      <c r="C139" s="7"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="9"/>
-      <c r="C140" s="11"/>
+      <c r="B140" s="6"/>
+      <c r="C140" s="7"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="9"/>
-      <c r="C141" s="11"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="7"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="9"/>
-      <c r="C142" s="11"/>
+      <c r="B142" s="6"/>
+      <c r="C142" s="7"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="9"/>
-      <c r="C143" s="11"/>
+      <c r="B143" s="6"/>
+      <c r="C143" s="7"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="9"/>
-      <c r="C144" s="11"/>
+      <c r="B144" s="6"/>
+      <c r="C144" s="7"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="9"/>
-      <c r="C145" s="11"/>
+      <c r="B145" s="6"/>
+      <c r="C145" s="7"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="9"/>
-      <c r="C146" s="11"/>
+      <c r="B146" s="6"/>
+      <c r="C146" s="7"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="9"/>
-      <c r="C147" s="11"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="7"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="9"/>
-      <c r="C148" s="11"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="7"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="9"/>
-      <c r="C149" s="11"/>
+      <c r="B149" s="6"/>
+      <c r="C149" s="7"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="9"/>
-      <c r="C150" s="11"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="7"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="9"/>
-      <c r="C151" s="11"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="7"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="9"/>
-      <c r="C152" s="11"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="7"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="9"/>
-      <c r="C153" s="11"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="7"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="9"/>
-      <c r="C154" s="11"/>
+      <c r="B154" s="6"/>
+      <c r="C154" s="7"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="9"/>
-      <c r="C155" s="11"/>
+      <c r="B155" s="6"/>
+      <c r="C155" s="7"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="9"/>
-      <c r="C156" s="11"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="7"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="9"/>
-      <c r="C157" s="11"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="7"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="9"/>
-      <c r="C158" s="11"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="7"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="9"/>
-      <c r="C159" s="11"/>
+      <c r="B159" s="6"/>
+      <c r="C159" s="7"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="9"/>
-      <c r="C160" s="11"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="7"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="9"/>
-      <c r="C161" s="11"/>
+      <c r="B161" s="6"/>
+      <c r="C161" s="7"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="9"/>
-      <c r="C162" s="11"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="7"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="9"/>
-      <c r="C163" s="11"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="7"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="9"/>
-      <c r="C164" s="11"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="7"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="9"/>
-      <c r="C165" s="11"/>
+      <c r="B165" s="6"/>
+      <c r="C165" s="7"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="9"/>
-      <c r="C166" s="11"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="7"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="9"/>
-      <c r="C167" s="11"/>
+      <c r="B167" s="6"/>
+      <c r="C167" s="7"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="9"/>
-      <c r="C168" s="11"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="7"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="9"/>
-      <c r="C169" s="11"/>
+      <c r="B169" s="6"/>
+      <c r="C169" s="7"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="9"/>
-      <c r="C170" s="11"/>
+      <c r="B170" s="6"/>
+      <c r="C170" s="7"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="9"/>
-      <c r="C171" s="11"/>
+      <c r="B171" s="6"/>
+      <c r="C171" s="7"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="9"/>
-      <c r="C172" s="11"/>
+      <c r="B172" s="6"/>
+      <c r="C172" s="7"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="9"/>
-      <c r="C173" s="11"/>
+      <c r="B173" s="6"/>
+      <c r="C173" s="7"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="9"/>
-      <c r="C174" s="11"/>
+      <c r="B174" s="6"/>
+      <c r="C174" s="7"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="9"/>
-      <c r="C175" s="11"/>
+      <c r="B175" s="6"/>
+      <c r="C175" s="7"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="9"/>
-      <c r="C176" s="11"/>
+      <c r="B176" s="6"/>
+      <c r="C176" s="7"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="9"/>
-      <c r="C177" s="11"/>
+      <c r="B177" s="6"/>
+      <c r="C177" s="7"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="9"/>
-      <c r="C178" s="11"/>
+      <c r="B178" s="6"/>
+      <c r="C178" s="7"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="9"/>
-      <c r="C179" s="11"/>
+      <c r="B179" s="6"/>
+      <c r="C179" s="7"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="9"/>
-      <c r="C180" s="11"/>
+      <c r="B180" s="6"/>
+      <c r="C180" s="7"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="9"/>
-      <c r="C181" s="11"/>
+      <c r="B181" s="6"/>
+      <c r="C181" s="7"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="9"/>
-      <c r="C182" s="11"/>
+      <c r="B182" s="6"/>
+      <c r="C182" s="7"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="9"/>
-      <c r="C183" s="11"/>
+      <c r="B183" s="6"/>
+      <c r="C183" s="7"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="9"/>
-      <c r="C184" s="11"/>
+      <c r="B184" s="6"/>
+      <c r="C184" s="7"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="9"/>
-      <c r="C185" s="11"/>
+      <c r="B185" s="6"/>
+      <c r="C185" s="7"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="9"/>
-      <c r="C186" s="11"/>
+      <c r="B186" s="6"/>
+      <c r="C186" s="7"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="9"/>
-      <c r="C187" s="11"/>
+      <c r="B187" s="6"/>
+      <c r="C187" s="7"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="9"/>
-      <c r="C188" s="11"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="7"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="9"/>
-      <c r="C189" s="11"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="7"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="9"/>
-      <c r="C190" s="11"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="7"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="9"/>
-      <c r="C191" s="11"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="7"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="9"/>
-      <c r="C192" s="11"/>
+      <c r="B192" s="6"/>
+      <c r="C192" s="7"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="9"/>
-      <c r="C193" s="11"/>
+      <c r="B193" s="6"/>
+      <c r="C193" s="7"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="9"/>
-      <c r="C194" s="11"/>
+      <c r="B194" s="6"/>
+      <c r="C194" s="7"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="9"/>
-      <c r="C195" s="11"/>
+      <c r="B195" s="6"/>
+      <c r="C195" s="7"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="9"/>
-      <c r="C196" s="11"/>
+      <c r="B196" s="6"/>
+      <c r="C196" s="7"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="9"/>
-      <c r="C197" s="11"/>
+      <c r="B197" s="6"/>
+      <c r="C197" s="7"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="9"/>
-      <c r="C198" s="11"/>
+      <c r="B198" s="6"/>
+      <c r="C198" s="7"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="9"/>
-      <c r="C199" s="11"/>
+      <c r="B199" s="6"/>
+      <c r="C199" s="7"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="9"/>
-      <c r="C200" s="11"/>
+      <c r="B200" s="6"/>
+      <c r="C200" s="7"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201" s="9"/>
-      <c r="C201" s="11"/>
+      <c r="B201" s="6"/>
+      <c r="C201" s="7"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="9"/>
-      <c r="C202" s="11"/>
+      <c r="B202" s="6"/>
+      <c r="C202" s="7"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="9"/>
-      <c r="C203" s="11"/>
+      <c r="B203" s="6"/>
+      <c r="C203" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2091,7 +3257,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2102,7 +3268,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -2123,7 +3289,7 @@
       <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2140,7 +3306,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2179,7 +3345,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -2187,7 +3353,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>55</v>
       </c>
@@ -2223,7 +3389,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="2" t="s">
@@ -2239,8 +3405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2273,8 +3439,310 @@
       <c r="B3" t="s">
         <v>69</v>
       </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="50.28515625" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="43.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D4:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/note/es6-features.xlsx
+++ b/note/es6-features.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="12" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="link" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,20 @@
     <sheet name="destructuring_assignment" sheetId="9" r:id="rId9"/>
     <sheet name="Modules" sheetId="10" r:id="rId10"/>
     <sheet name="Class" sheetId="11" r:id="rId11"/>
+    <sheet name="Map-Set" sheetId="14" r:id="rId12"/>
+    <sheet name="Promise" sheetId="17" r:id="rId13"/>
+    <sheet name="Sheet8" sheetId="19" r:id="rId14"/>
+    <sheet name="New Methods" sheetId="15" r:id="rId15"/>
+    <sheet name="Meta-Programming" sheetId="16" r:id="rId16"/>
+    <sheet name="Symbol Type" sheetId="12" r:id="rId17"/>
+    <sheet name="Generators" sheetId="13" r:id="rId18"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="185">
   <si>
     <t>http://es6-features.org</t>
   </si>
@@ -1639,12 +1646,927 @@
 r.area === 1000</t>
     </r>
   </si>
+  <si>
+    <t>khó hiểu</t>
+  </si>
+  <si>
+    <t>Map/Set &amp; WeakMap/WeakSet</t>
+  </si>
+  <si>
+    <t>Set Data-Structure</t>
+  </si>
+  <si>
+    <t>let s = new Set()
+s.add("hello").add("goodbye").add("hello")
+s.size === 2
+s.has("hello") === true
+for (let key of s.values()) // insertion order
+    console.log(key)</t>
+  </si>
+  <si>
+    <t>var s = {};
+s["hello"] = true; s["goodbye"] = true; s["hello"] = true;
+Object.keys(s).length === 2;
+s["hello"] === true;
+for (var key in s) // arbitrary order
+    if (s.hasOwnProperty(key))
+        console.log(s[key]);</t>
+  </si>
+  <si>
+    <t>let m = new Map()
+let s = Symbol()
+m.set("hello", 42)
+m.set(s, 34)
+m.get(s) === 34
+m.size === 2
+for (let [ key, val ] of m.entries())
+    console.log(key + " = " + val)</t>
+  </si>
+  <si>
+    <t>var m = {};
+// no equivalent in ES5
+m["hello"] = 42;
+// no equivalent in ES5
+// no equivalent in ES5
+Object.keys(m).length === 2;
+for (key in m) {
+    if (m.hasOwnProperty(key)) {
+        var val = m[key];
+        console.log(key + " = " + val);
+    }
+}</t>
+  </si>
+  <si>
+    <t>Map Data-Structure</t>
+  </si>
+  <si>
+    <t>Weak-Link Data-Structures</t>
+  </si>
+  <si>
+    <t>New Built-In Methods</t>
+  </si>
+  <si>
+    <t>Object Property Assignment</t>
+  </si>
+  <si>
+    <t>var dest = { quux: 0 };
+var src1 = { foo: 1, bar: 2 };
+var src2 = { foo: 3, baz: 4 };
+Object.keys(src1).forEach(function(k) {
+    dest[k] = src1[k];
+});
+Object.keys(src2).forEach(function(k) {
+    dest[k] = src2[k];
+});
+dest.quux === 0;
+dest.foo  === 3;
+dest.bar  === 2;
+dest.baz  === 4;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var dest = { quux: 0 }
+var src1 = { foo: 1, bar: 2 }
+var src2 = { foo: 3, baz: 4 }
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Object.assign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(dest, src1, src2)
+dest.quux === 0
+dest.foo  === 3
+dest.bar  === 2
+dest.baz  === 4</t>
+    </r>
+  </si>
+  <si>
+    <t>[ 1, 3, 4, 2 ].filter(function (x) { return x &gt; 3; })[0]; // 4
+// no equivalent in ES5</t>
+  </si>
+  <si>
+    <t>find chỉ trả về phần tử đầu tiên thôi nhé</t>
+  </si>
+  <si>
+    <r>
+      <t>[ 1, 3, 4, 2 ].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>find</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(x =&gt; x &gt; 3) // 4
+[ 1, 3, 4, 2 ].</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>findIndex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(x =&gt; x &gt; 3) // 2</t>
+    </r>
+  </si>
+  <si>
+    <t>Array Element Finding</t>
+  </si>
+  <si>
+    <t>String Repeating</t>
+  </si>
+  <si>
+    <r>
+      <t>" ".</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>repea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t(4 * depth)
+"foo".</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>repea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t(3)</t>
+    </r>
+  </si>
+  <si>
+    <t>Array((4 * depth) + 1).join(" ");
+Array(3 + 1).join("foo");</t>
+  </si>
+  <si>
+    <t>String Searching</t>
+  </si>
+  <si>
+    <r>
+      <t>"hello".</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>startsWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("ello", 1) // true
+"hello".</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>endsWith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("hell", 4)   // true
+"hello".</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>includes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("ell")       // true
+"hello".includes("ell", 1)    // true
+"hello".includes("ell", 2)    // false</t>
+    </r>
+  </si>
+  <si>
+    <t>"hello".indexOf("ello") === 1;    // true
+"hello".indexOf("hell") === (4 - "hell".length); // true
+"hello".indexOf("ell") !== -1;    // true
+"hello".indexOf("ell", 1) !== -1; // true
+"hello".indexOf("ell", 2) !== -1; // false</t>
+  </si>
+  <si>
+    <r>
+      <t>Number.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isNaN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(42) === false
+Number.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>isNaN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(NaN) === true
+Number.isFinite(Infinity) === false
+Number.isFinite(-Infinity) === false
+Number.isFinite(NaN) === false
+Number.isFinite(123) === true</t>
+    </r>
+  </si>
+  <si>
+    <t>var isNaN = function (n) {
+    return n !== n;
+};
+var isFinite = function (v) {
+    return (typeof v === "number" &amp;&amp; !isNaN(v) &amp;&amp; v !== Infinity &amp;&amp; v !== -Infinity);
+};
+isNaN(42) === false;
+isNaN(NaN) === true;
+isFinite(Infinity) === false;
+isFinite(-Infinity) === false;
+isFinite(NaN) === false;
+isFinite(123) === true;</t>
+  </si>
+  <si>
+    <t>Number Truncation</t>
+  </si>
+  <si>
+    <t>tùy theo trường hợp mà làm tròn lên hay xuống</t>
+  </si>
+  <si>
+    <r>
+      <t>console.log(Math.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trunc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(42.7)) // 42
+console.log(Math.trunc( 0.1)) // 0
+console.log(Math.trunc(-0.1)) // -0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function mathSign (x) {
+    return ((x === 0 || isNaN(x)) ? x : (x &gt; 0 ? 1 : -1));
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log(mathSign(7))   // 1
+console.log(mathSign(0))   // 0
+console.log(mathSign(-0))  // -0
+console.log(mathSign(-7))  // -1
+console.log(mathSign(NaN)) // NaN</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>console.log(Math.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sign</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(7))   // 1
+console.log(Math.sign(0))   // 0
+console.log(Math.sign(-0))  // -0
+console.log(Math.sign(-7))  // -1
+console.log(Math.sign(NaN)) // NaN</t>
+    </r>
+  </si>
+  <si>
+    <t>Number Sign Determination</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>function mathTrunc (x) {
+    return (x &lt; 0 ? Math.ceil(x) : Math.floor(x));
+}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log(mathTrunc(42.7)) // 42
+console.log(mathTrunc( 0.1)) // 0
+console.log(mathTrunc(-0.1)) // -0</t>
+    </r>
+  </si>
+  <si>
+    <t>Proxying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta-Programming
+</t>
+  </si>
+  <si>
+    <t>let target = {
+    foo: "Welcome, foo"
+}
+let proxy = new Proxy(target, {
+    get (receiver, name) {
+        return name in receiver ? receiver[name] : `Hello, ${name}`
+    }
+})
+proxy.foo   === "Welcome, foo"
+proxy.world === "Hello, world"</t>
+  </si>
+  <si>
+    <t>// no equivalent in ES5</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let obj = { a: 1 }
+Object.defineProperty(obj, "b", { value: 2 })
+obj[Symbol("c")] = 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Reflect.ownKeys</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(obj) // [ "a", "b", Symbol(c) ]</t>
+    </r>
+  </si>
+  <si>
+    <t>var obj = { a: 1 };
+Object.defineProperty(obj, "b", { value: 2 });
+// no equivalent in ES5
+Object.getOwnPropertyNames(obj); // [ "a", "b" ]</t>
+  </si>
+  <si>
+    <t>Reflection</t>
+  </si>
+  <si>
+    <t>cách bình thường Object.keys(obj) chỉ xuất ra a</t>
+  </si>
+  <si>
+    <t>Promises</t>
+  </si>
+  <si>
+    <r>
+      <t>function msgAfterTimeout (msg, who, timeout) {
+    return new Promise((</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resolve, reject</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) =&gt; {
+        setTimeout(() =&gt; resolve(`${msg} Hello ${who}!`), timeout)
+    })
+}
+msgAfterTimeout("", "Foo", 100).then((msg) =&gt;
+    msgAfterTimeout(msg, "Bar", 200)
+).then((msg) =&gt; {
+    console.log(`done after 300ms:${msg}`)
+})</t>
+    </r>
+  </si>
+  <si>
+    <t>function msgAfterTimeout (msg, who, timeout, onDone) {
+    setTimeout(function () {
+        onDone(msg + " Hello " + who + "!");
+    }, timeout);
+}
+msgAfterTimeout("", "Foo", 100, function (msg) {
+    msgAfterTimeout(msg, "Bar", 200, function (msg) {
+        console.log("done after 300ms:" + msg);
+    });
+});</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Promise </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">function fetchAsync (url, timeout, onData, onError) {
+    …
+}
+let fetchPromised = (url, timeout) =&gt; {
+    return new Promise((resolve, reject) =&gt; {
+        fetchAsync(url, timeout, resolve, reject)
+    })
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Promise.al</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">([
+    fetchPromised("http://backend/foo.txt", 500),
+    fetchPromised("http://backend/bar.txt", 500),
+    fetchPromised("http://backend/baz.txt", 500)
+]).then((data) =&gt; {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> let [ foo, bar, baz ] = data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    console.log(`success: foo=${foo} bar=${bar} baz=${baz}`)
+}, (err) =&gt; {
+    console.log(`error: ${err}`)
+})</t>
+    </r>
+  </si>
+  <si>
+    <t>Promise Combination</t>
+  </si>
+  <si>
+    <t>function fetchAsync (url, timeout, onData, onError) {
+    …
+}
+function fetchAll (request, onData, onError) {
+    var result = [], results = 0;
+    for (var i = 0; i &lt; request.length; i++) {
+        result[i] = null;
+        (function (i) {
+            fetchAsync(request[i].url, request[i].timeout, function (data) {
+                result[i] = data;
+                if (++results === request.length)
+                    onData(result);
+            }, onError);
+        })(i);
+    }
+}
+fetchAll([
+    { url: "http://backend/foo.txt", timeout: 500 },
+    { url: "http://backend/bar.txt", timeout: 500 },
+    { url: "http://backend/baz.txt", timeout: 500 }
+], function (data) {
+    var foo = data[0], bar = data[1], baz = data[2];
+    console.log("success: foo=" + foo + " bar=" + bar + " baz=" + baz);
+}, function (err) {
+    console.log("error: " + err);
+});</t>
+  </si>
+  <si>
+    <t>Collation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">// in German,  "ä" sorts with "a"
+// in Swedish, "ä" sorts after "z"
+var list = [ "ä", "a", "z" ]
+var l10nDE = new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Collator("de")
+var l10nSV = new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intl</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.Collator("sv")
+l10nDE.compare("ä", "z") === -1
+l10nSV.compare("ä", "z") === +1
+console.log(list.sort(l10nDE.compare)) // [ "a", "ä", "z" ]
+console.log(list.sort(l10nSV.compare)) // [ "a", "z", "ä" ]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">var l10nEN = new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intl.NumberForma</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">t("en-US")
+var l10nDE = new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intl.NumberFormat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("de-DE")
+l10nEN.format(1234567.89) === "1,234,567.89"
+l10nDE.format(1234567.89) === "1.234.567,89"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Internationalization &amp; Localization (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intl.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>Number Formatting</t>
+  </si>
+  <si>
+    <t>var l10nUSD = new Intl.NumberFormat("en-US", { style: "currency", currency: "USD" })
+var l10nGBP = new Intl.NumberFormat("en-GB", { style: "currency", currency: "GBP" })
+var l10nEUR = new Intl.NumberFormat("de-DE", { style: "currency", currency: "EUR" })
+l10nUSD.format(100200300.40) === "$100,200,300.40"
+l10nGBP.format(100200300.40) === "£100,200,300.40"
+l10nEUR.format(100200300.40) === "100.200.300,40 €"</t>
+  </si>
+  <si>
+    <t>Currency Formatting</t>
+  </si>
+  <si>
+    <t>Date/Time Formatting</t>
+  </si>
+  <si>
+    <r>
+      <t>var l10nEN = new</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Intl.DateTimeFormat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">("en-US")
+var l10nDE = new </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Intl.DateTimeFormat</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>("de-DE")
+l10nEN.format(new Date("2015-01-02")) === "1/2/2015"
+l10nDE.format(new Date("2015-01-02")) === "2.1.2015"</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1689,6 +2611,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1710,7 +2640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1746,12 +2676,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1766,9 +2720,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1787,11 +2738,43 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2126,7 +3109,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2141,7 +3124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -2152,7 +3135,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="180" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -2172,117 +3155,928 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="46.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="67" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="17" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="255" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="225" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="14"/>
+      <c r="C4" s="13"/>
     </row>
     <row r="5" spans="1:3" ht="105" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="165" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" location="ClassInheritanceFromExpressions"/>
   </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="53.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="42.5703125" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="29"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="53.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="109.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="58.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="93" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="55.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="195" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>159</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="42.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="76.42578125" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="150" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2339,30 +4133,30 @@
       <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="16"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="10" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="15" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
@@ -2373,10 +4167,10 @@
       <c r="A11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="15" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2384,10 +4178,10 @@
       <c r="A12" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2395,10 +4189,10 @@
       <c r="A13" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2406,28 +4200,28 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="16"/>
+      <c r="C14" s="15"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="16"/>
+      <c r="C15" s="15"/>
     </row>
     <row r="16" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2435,239 +4229,239 @@
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="16"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="13"/>
-      <c r="C19" s="16"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="15"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="13"/>
-      <c r="C20" s="16"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="15"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-      <c r="C21" s="16"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="15"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="13"/>
-      <c r="C22" s="16"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="13"/>
-      <c r="C23" s="16"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="13"/>
-      <c r="C24" s="16"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="13"/>
-      <c r="C25" s="16"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="15"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="13"/>
-      <c r="C26" s="16"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="15"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="13"/>
-      <c r="C27" s="16"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="16"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="15"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="13"/>
-      <c r="C29" s="16"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="13"/>
-      <c r="C30" s="16"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="15"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-      <c r="C31" s="16"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="15"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="16"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="15"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="16"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="16"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="15"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-      <c r="C35" s="16"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="15"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
-      <c r="C36" s="16"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="15"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="13"/>
-      <c r="C37" s="16"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="15"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="16"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="15"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="13"/>
-      <c r="C39" s="16"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="15"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="13"/>
-      <c r="C40" s="16"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="15"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="13"/>
-      <c r="C41" s="16"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="15"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="13"/>
-      <c r="C42" s="16"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="15"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
-      <c r="C43" s="16"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="15"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="13"/>
-      <c r="C44" s="16"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="16"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="15"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="10"/>
+      <c r="B46" s="9"/>
       <c r="C46" s="7"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="10"/>
+      <c r="B47" s="9"/>
       <c r="C47" s="7"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="10"/>
+      <c r="B48" s="9"/>
       <c r="C48" s="7"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="10"/>
+      <c r="B49" s="9"/>
       <c r="C49" s="7"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="10"/>
+      <c r="B50" s="9"/>
       <c r="C50" s="7"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="10"/>
+      <c r="B51" s="9"/>
       <c r="C51" s="7"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="10"/>
+      <c r="B52" s="9"/>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="10"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="10"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="7"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="10"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="7"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="10"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="7"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="10"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="7"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="10"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="7"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="10"/>
+      <c r="B59" s="9"/>
       <c r="C59" s="7"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="10"/>
+      <c r="B60" s="9"/>
       <c r="C60" s="7"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="10"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="7"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="10"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="7"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="10"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="7"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="10"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="10"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="10"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="10"/>
+      <c r="B67" s="9"/>
       <c r="C67" s="7"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="10"/>
+      <c r="B68" s="9"/>
       <c r="C68" s="7"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="10"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="7"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="10"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="7"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="10"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="7"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="10"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="7"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="10"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="7"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="10"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="7"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
@@ -3257,7 +5051,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3268,7 +5062,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
@@ -3495,47 +5289,47 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="33.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="13"/>
+      <c r="B1" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="14"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14" t="s">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3546,101 +5340,101 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="165" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>86</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3686,7 +5480,7 @@
       <c r="C4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="23" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3700,7 +5494,7 @@
       <c r="C5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="21"/>
+      <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3712,7 +5506,7 @@
       <c r="C6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="21"/>
+      <c r="D6" s="23"/>
     </row>
     <row r="7" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -3735,7 +5529,7 @@
       <c r="C8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="22" t="s">
+      <c r="D8" s="20" t="s">
         <v>106</v>
       </c>
     </row>
